--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1356435.343122304</v>
+        <v>-1359074.690440326</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>6.517207245238528</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>236.6022118300098</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>152.2826811869765</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>250.2908906181926</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>174.9372198042336</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>66.49987563263203</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>180.5935070739812</v>
+        <v>256.6293442484757</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>330.7594927837707</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>58.92805047992118</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>25.23209651061866</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>149.1095818503213</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>143.2091541404067</v>
       </c>
     </row>
     <row r="14">
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>122.8704329402507</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>95.12712756824166</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>95.05806357631771</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>217.6587144826188</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.29683349370546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>37.41782514684062</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>26.05480806223588</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>46.15319674220955</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3190,22 +3190,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261737</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1936.747355174407</v>
+        <v>1230.636903877521</v>
       </c>
       <c r="C2" t="n">
-        <v>1567.784838233996</v>
+        <v>861.6743869371094</v>
       </c>
       <c r="D2" t="n">
-        <v>1567.784838233996</v>
+        <v>503.4086883303589</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2347.010649384527</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1994.241994114413</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>1620.776235853333</v>
       </c>
       <c r="Y2" t="n">
-        <v>2323.347195238529</v>
+        <v>1230.636903877521</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4407,22 +4407,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1800.470091281865</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
         <v>2214.708848710446</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.8338829770711</v>
+        <v>536.0825277700245</v>
       </c>
       <c r="C4" t="n">
-        <v>770.8338829770711</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="D4" t="n">
-        <v>620.7172435647353</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1482.625229986642</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1482.625229986642</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>1482.625229986642</v>
       </c>
       <c r="V4" t="n">
-        <v>1281.043632157562</v>
+        <v>1227.940741780755</v>
       </c>
       <c r="W4" t="n">
-        <v>991.6264621206012</v>
+        <v>938.5235717437944</v>
       </c>
       <c r="X4" t="n">
-        <v>991.6264621206012</v>
+        <v>938.5235717437944</v>
       </c>
       <c r="Y4" t="n">
-        <v>770.8338829770711</v>
+        <v>717.7309926002642</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1067.6853146838</v>
+        <v>1146.918698535759</v>
       </c>
       <c r="C5" t="n">
-        <v>698.7227977433884</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="D5" t="n">
-        <v>522.0185353148695</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872906</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764997</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2495.167736852042</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2241.586676116221</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190806</v>
+        <v>1910.523788772651</v>
       </c>
       <c r="W5" t="n">
-        <v>1831.290404920692</v>
+        <v>1910.523788772651</v>
       </c>
       <c r="X5" t="n">
-        <v>1457.824646659612</v>
+        <v>1537.058030511571</v>
       </c>
       <c r="Y5" t="n">
-        <v>1067.6853146838</v>
+        <v>1146.918698535759</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>482.9033490193024</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>777.6069060507741</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.868925009994</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1528.154053606939</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783101</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>644.9053651971361</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="C7" t="n">
-        <v>644.9053651971361</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D7" t="n">
-        <v>494.7887257848004</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253779</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.115628253779</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="W7" t="n">
-        <v>865.6979443406663</v>
+        <v>1180.595812387413</v>
       </c>
       <c r="X7" t="n">
-        <v>865.6979443406663</v>
+        <v>952.6062614893956</v>
       </c>
       <c r="Y7" t="n">
-        <v>644.9053651971361</v>
+        <v>952.6062614893956</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1934.208022973022</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734407</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>504.4781294962293</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>335.5419465683224</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>335.5419465683224</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>335.5419465683224</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>335.5419465683224</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368016</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>906.9191734699991</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>686.126594326469</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5030,13 +5030,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5221,25 +5221,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y13" t="n">
         <v>1280.315625093766</v>
@@ -5273,22 +5273,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803617</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876688</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>580.8993044876688</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2350.944837543576</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2131.343372566517</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1842.268145910715</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1587.583657704828</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1298.166487667867</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1070.17693676985</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>849.3843576263199</v>
       </c>
     </row>
     <row r="20">
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,22 +5777,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>719.5738700011939</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>550.637687073287</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y22" t="n">
-        <v>901.2223348314336</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,55 +6121,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>724.7519863413023</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6187,10 +6187,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6212,25 +6212,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6242,34 +6242,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1478848544703</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4360536966684</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,46 +6455,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,16 +6534,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6552,10 +6552,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319335</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656828</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,19 +6947,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,19 +7108,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345477</v>
@@ -7588,13 +7588,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,7 +7801,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7810,7 +7810,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,19 +7828,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>168.743458178064</v>
+        <v>30.36925650589518</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>186.449012614385</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>54.95314511566545</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>36.02449900864998</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>321.2350512248964</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>134.2602965593873</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>149.6357268260438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22753,13 +22753,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>76.60007353871589</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>75.37549921168812</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>25.74504007796166</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>51.30683507832751</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>85.96822242532689</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>137.2878198583893</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>142.4141550350967</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>35.11263957635598</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1065017.050841348</v>
+        <v>1065017.050841347</v>
       </c>
     </row>
     <row r="3">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154575</v>
+        <v>135401.7127154574</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="E2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="F2" t="n">
         <v>161429.3199380013</v>
       </c>
       <c r="G2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="H2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="I2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="M2" t="n">
         <v>164208.3539728568</v>
@@ -26353,7 +26353,7 @@
         <v>164208.3539728568</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67721.68800182255</v>
+        <v>67721.68800182253</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53312.72503984557</v>
+        <v>53312.72503984559</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
         <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744282</v>
@@ -26433,25 +26433,25 @@
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
+        <v>8727.256391744322</v>
+      </c>
+      <c r="I4" t="n">
         <v>8727.256391744299</v>
       </c>
-      <c r="I4" t="n">
-        <v>8727.256391744248</v>
-      </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744346</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744264</v>
+        <v>8727.256391744268</v>
       </c>
       <c r="L4" t="n">
+        <v>16718.11565483777</v>
+      </c>
+      <c r="M4" t="n">
         <v>16718.11565483774</v>
       </c>
-      <c r="M4" t="n">
-        <v>16718.11565483771</v>
-      </c>
       <c r="N4" t="n">
-        <v>16718.11565483774</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="O4" t="n">
         <v>16718.11565483774</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1125600.568340153</v>
+        <v>-1125960.65135587</v>
       </c>
       <c r="C6" t="n">
-        <v>-64251.5554439711</v>
+        <v>-64251.55544397116</v>
       </c>
       <c r="D6" t="n">
-        <v>-224267.0181919701</v>
+        <v>-224267.0181919702</v>
       </c>
       <c r="E6" t="n">
-        <v>-273832.9280850053</v>
+        <v>-273867.6660104411</v>
       </c>
       <c r="F6" t="n">
-        <v>51579.53372234986</v>
+        <v>51544.79579691417</v>
       </c>
       <c r="G6" t="n">
-        <v>51579.53372234981</v>
+        <v>51544.79579691422</v>
       </c>
       <c r="H6" t="n">
-        <v>51579.53372234981</v>
+        <v>51544.79579691413</v>
       </c>
       <c r="I6" t="n">
-        <v>51579.53372234981</v>
+        <v>51544.79579691407</v>
       </c>
       <c r="J6" t="n">
-        <v>-116025.6440876327</v>
+        <v>-116060.3820130685</v>
       </c>
       <c r="K6" t="n">
-        <v>51579.53372234982</v>
+        <v>51544.79579691414</v>
       </c>
       <c r="L6" t="n">
-        <v>-23395.56553771894</v>
+        <v>-23395.56553771898</v>
       </c>
       <c r="M6" t="n">
-        <v>-40728.90547140812</v>
+        <v>-40728.90547140816</v>
       </c>
       <c r="N6" t="n">
-        <v>44326.12246410374</v>
+        <v>44326.12246410362</v>
       </c>
       <c r="O6" t="n">
-        <v>44326.12246410362</v>
+        <v>44326.12246410365</v>
       </c>
       <c r="P6" t="n">
-        <v>44326.12246410365</v>
+        <v>44326.1224641036</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203967</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203967</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26814,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27018,7 +27018,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>87.4277163901444</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>235.4708041190817</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>42.37977917476096</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>1.846752705635396</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>179.7458218164493</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>140.1583093476017</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>105.9294912626098</v>
+        <v>29.89365408811528</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.97434887970991</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27910,16 +27910,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>290.3129182374918</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>140.7937117484096</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28855,10 +28855,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,16 +31847,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>556.7959610899863</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>332.169238832108</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236515</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>604.7968300725072</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,22 +33263,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>574.2721069128561</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>418.4229873015963</v>
+        <v>280.0487856294274</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>373.0365088578698</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>304.6326742391977</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,16 +35495,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>425.454249006653</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876636</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.587454168382</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,19 +36914,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>431.6758624684117</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
